--- a/biology/Botanique/William_Philip_Hiern/William_Philip_Hiern.xlsx
+++ b/biology/Botanique/William_Philip_Hiern/William_Philip_Hiern.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Philip Hiern, né le 19 janvier 1839 et mort le 28 novembre 1925, est un mathématicien et botaniste anglais.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hiern poursuit ses études de mathématiques au St John's College (Cambridge) de 1857 à 1861. Plus tard, il suit des cours en 1886 à l'université d'Oxford.
 Il s'installe dans le Surrey après son mariage et s'intéresse à la botanique. Il déménage en 1881 au manoir de Barnstaple dans le Devonshire. Il y mène la vie de la gentry locale en prenant des responsabilités, comme celle de Lord of the Manor du village de Stoke Rivers à proximité, ou alderman (en) du comté du Devon.
@@ -546,7 +560,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « William Philip Hiern » (voir la liste des auteurs).</t>
         </is>
